--- a/data/InputData.xlsx
+++ b/data/InputData.xlsx
@@ -16,12 +16,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>UserName</t>
   </si>
   <si>
-    <t>Lalit</t>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>manager</t>
+  </si>
+  <si>
+    <t>password</t>
   </si>
 </sst>
 </file>
@@ -353,22 +359,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/data/InputData.xlsx
+++ b/data/InputData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>UserName</t>
   </si>
@@ -28,6 +28,12 @@
   </si>
   <si>
     <t>password</t>
+  </si>
+  <si>
+    <t>abcd</t>
+  </si>
+  <si>
+    <t>hbjbhj</t>
   </si>
 </sst>
 </file>
@@ -359,10 +365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -381,6 +387,14 @@
       </c>
       <c r="B2" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/data/InputData.xlsx
+++ b/data/InputData.xlsx
@@ -7,8 +7,8 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="TestCase1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Valid_Login" sheetId="1" r:id="rId1"/>
+    <sheet name="Invalid_Login" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t>UserName</t>
   </si>
@@ -365,10 +365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -389,14 +389,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -404,12 +396,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
